--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3297346.952750334</v>
+        <v>3290329.937858622</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>151.3845250273784</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>100.130934086303</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,25 +709,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6344015558572</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>122.2073444116543</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>137.5204078766295</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>122.4298235197102</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>28.11374845278275</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>175.7939063102969</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>48.60813945702061</v>
+        <v>129.1935566495323</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.1565794787435</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.4538219748019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417133</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.32489541078274</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>155.8385935972308</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>125.0009230777858</v>
       </c>
       <c r="X16" t="n">
-        <v>224.9757337926615</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.0620455622125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>135.503944151775</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>237.3965091869253</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>94.1648127494126</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,16 +2772,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.41159191917841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>117.1501684881975</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>5.895971487165411</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>273.1997527992887</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>58.40168825977486</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.02215316756894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>110.4431276099398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.71233187893839</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.426648284105</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1112.303376188265</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>726.5151235900203</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1112.426648284105</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.0636002298166</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.1505066474235</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.2605591495132</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>456.5405636086444</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>456.5405636086444</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.970060705655</v>
+        <v>880.7122078777245</v>
       </c>
       <c r="C5" t="n">
-        <v>1146.060557799969</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>511.7496909373128</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>504.8041901881093</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.970060705655</v>
+        <v>1267.312047941846</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>551.8181649141598</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="T7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="U7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="V7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="W7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="X7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.9958041606071</v>
+        <v>699.7312584965529</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2416.843783098218</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U8" t="n">
-        <v>2416.843783098218</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V8" t="n">
-        <v>2085.780895754648</v>
+        <v>1981.825876242509</v>
       </c>
       <c r="W8" t="n">
-        <v>1733.012240484533</v>
+        <v>1629.057220972395</v>
       </c>
       <c r="X8" t="n">
-        <v>1359.546482223453</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223453</v>
+        <v>865.4521307355029</v>
       </c>
     </row>
     <row r="9">
@@ -4883,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2173.079728044489</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>2173.079728044489</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>2697.149091018222</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>2549.002432452407</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>2321.012881554389</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>2173.079728044489</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,16 +5117,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>167.8887746690279</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M12" t="n">
         <v>1332.091733170013</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.4843764226425</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.21084526296</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W13" t="n">
-        <v>1075.21084526296</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X13" t="n">
-        <v>847.2212943649431</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>626.428715221413</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,67 +5263,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>932.1883377003199</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>991.0842369787849</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>822.148054050878</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293934</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>643.8194987924328</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402495</v>
+        <v>1172.732701809025</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>1172.732701809025</v>
       </c>
     </row>
     <row r="17">
@@ -5494,49 +5494,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>2525.058920465859</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>2771.824048372323</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>3079.144181652285</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3883.555759916435</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>4163.095825135132</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698579</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649431</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.4616523829103</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2292.946699347402</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>384.5077707727214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>531.3977182706318</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.3977182706318</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028627</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324574</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324574</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>192.33306393444</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.33306393444</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6259,7 +6259,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
         <v>3931.29497012173</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017357</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017357</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4058.523348980396</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>3830.533798082379</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3787.693806244825</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,7 +6475,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6484,31 +6484,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4045.444533962831</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>524.8400981009108</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C31" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1380.582767034471</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1380.582767034471</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.965630280568</v>
+        <v>1091.454128248029</v>
       </c>
       <c r="V31" t="n">
-        <v>927.2811420746807</v>
+        <v>836.769640042142</v>
       </c>
       <c r="W31" t="n">
-        <v>927.2811420746807</v>
+        <v>836.769640042142</v>
       </c>
       <c r="X31" t="n">
-        <v>927.2811420746807</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y31" t="n">
-        <v>706.4885629311506</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,28 +6721,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3890.044176674691</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4361.109811541891</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4361.109811541891</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>4071.692641504931</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>4071.692641504931</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>4071.692641504931</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,46 +6916,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,16 +6964,16 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3686.322319899658</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>3686.322319899658</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>3686.322319899658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V37" t="n">
-        <v>4606.170084808406</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W37" t="n">
-        <v>4316.752914771445</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X37" t="n">
-        <v>4088.763363873428</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y37" t="n">
-        <v>3867.970784729898</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7180,28 +7180,28 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7253,22 +7253,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W40" t="n">
-        <v>1209.499100520942</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X40" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>910.7801019789154</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,40 +7396,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,7 +7444,7 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.29497012173</v>
@@ -7453,10 +7453,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>3263.786115209751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>3571.106248489713</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>3900.968876153745</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>4242.791036724022</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7599,22 +7599,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>785.7936752259998</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>785.7936752259998</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7672,13 +7672,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>3326.06821056133</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>3633.388343841291</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>3963.250971505324</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>4242.791036724021</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>4763.091658459768</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916991</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>413.0432218861031</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W46" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X46" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>594.6916867163428</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992659</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>29.47535963978225</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>199.6230805871083</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>38.86002301949887</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>369.0893880493732</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>73.64859338270611</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>360.5026862907243</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>230.7151863772039</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>199.6230805871093</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>62.91120742583786</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>169.2863157167179</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.5070847711546</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>96.29904972659716</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>161.5220752588052</v>
       </c>
       <c r="X16" t="n">
-        <v>0.7339215963756658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.52260778988233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>30.98962431160254</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>14.74113413690273</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>52.26914989715657</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y28" t="n">
-        <v>176.1730614329164</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.7706414954058</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>280.3413809114119</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>13.03759959928868</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>88.03227438679431</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y40" t="n">
-        <v>148.5625001845258</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>108.141525742155</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.8723214731564</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>725239.1214241708</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>725239.121424171</v>
+        <v>725239.1214241709</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.1214241708</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>725239.1214241709</v>
+        <v>725239.121424171</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541053</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="G2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="I2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.401554105</v>
-      </c>
       <c r="K2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="N2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="L2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="N2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541046</v>
-      </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,25 +26426,25 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687063</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687067</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26459,7 +26459,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26499,7 +26499,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-140574.3206798373</v>
+        <v>-140574.3206798374</v>
       </c>
       <c r="C6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347071</v>
       </c>
       <c r="D6" t="n">
-        <v>449393.5585347073</v>
+        <v>449393.5585347072</v>
       </c>
       <c r="E6" t="n">
-        <v>25427.43154162198</v>
+        <v>24452.84028189945</v>
       </c>
       <c r="F6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587962</v>
       </c>
       <c r="G6" t="n">
-        <v>550587.4680185178</v>
+        <v>549612.8767587956</v>
       </c>
       <c r="H6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.876758796</v>
       </c>
       <c r="I6" t="n">
-        <v>550587.4680185172</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="J6" t="n">
-        <v>374164.2488259247</v>
+        <v>373189.6575662027</v>
       </c>
       <c r="K6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="L6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587959</v>
       </c>
       <c r="M6" t="n">
-        <v>415786.4527846802</v>
+        <v>414811.8615249583</v>
       </c>
       <c r="N6" t="n">
-        <v>550587.4680185177</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="O6" t="n">
-        <v>550587.4680185174</v>
+        <v>549612.8767587958</v>
       </c>
       <c r="P6" t="n">
-        <v>550587.4680185175</v>
+        <v>549612.8767587959</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26767,7 +26767,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>213.8883667436291</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>306.7451116554084</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0.6754007031937022</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>102.82776104643</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>227.752483894378</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>291.3543465010848</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>118.5514435273751</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>49.24119914778734</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>167.8401809006372</v>
+        <v>87.25476370812552</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0.6754007031938158</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.13083137729294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-1.459465069343253e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>71.38553859468891</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35746,7 +35746,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>406.7164955186331</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>245.9534379510236</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>679.5137650998395</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>384.0729704331724</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>693.6972596887373</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>437.8086013087286</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,13 +37633,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>406.716495518634</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37873,16 +37873,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>345.274909666946</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>418.5440206727421</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
